--- a/results/paralogs/statistics.xlsx
+++ b/results/paralogs/statistics.xlsx
@@ -1,116 +1,123 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Documents\GitHub\F-H_2018_git\results\paralogs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B1F76A-1F76-4744-AF79-C31D018FC2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Basic Stats" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Fst" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Basic Stats" sheetId="1" r:id="rId1"/>
+    <sheet name="Fst" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n[D]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H[o]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Het/Hom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n[other]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North America (North America)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hawaii (Hawaii)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guam (Guam)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rota (Rota)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saipan (Saipan)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queensland (Queensland)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New South Wales (New South Wales)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Victoria (Victoria)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIC</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>n[D]</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>H[o]</t>
+  </si>
+  <si>
+    <t>Het/Hom</t>
+  </si>
+  <si>
+    <t>n[other]</t>
+  </si>
+  <si>
+    <t>North America (North America)</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Hawaii (Hawaii)</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Guam (Guam)</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Rota (Rota)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Saipan (Saipan)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Queensland (Queensland)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>New South Wales (New South Wales)</t>
+  </si>
+  <si>
+    <t>Victoria (Victoria)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>GUA</t>
+  </si>
+  <si>
+    <t>HAW</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>NSW</t>
+  </si>
+  <si>
+    <t>QLD</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>SAI</t>
+  </si>
+  <si>
+    <t>VIC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -146,6 +153,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -427,14 +443,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,185 +475,185 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="n">
-        <v>-1.981</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>-1.9810000000000001</v>
+      </c>
+      <c r="C2">
         <v>83</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.115</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E2">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F2">
         <v>0.114</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="n">
-        <v>-0.265</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>-0.26500000000000001</v>
+      </c>
+      <c r="C3">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.114</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.105</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.117</v>
+      <c r="F3">
+        <v>0.11700000000000001</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>0.05</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>19</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.08</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.082</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E4">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F4">
         <v>0.09</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>0.371</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.091</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.089</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.098</v>
+      <c r="D5">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F5">
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.299</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.066</v>
+      <c r="D6">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E6">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F6">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.308</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>15</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.111</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.11</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.124</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.107</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.103</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F8">
         <v>0.115</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.886</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.104</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.104</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.117</v>
+      <c r="F9">
+        <v>0.11700000000000001</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -643,254 +661,280 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="e">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2">
         <v>0.2545</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="D2">
+        <v>0.25369999999999998</v>
+      </c>
+      <c r="E2">
         <v>0.3236</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.2799</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.2692</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.2608</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.384</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B3" t="e">
+      <c r="F2">
+        <v>0.27989999999999998</v>
+      </c>
+      <c r="G2">
+        <v>0.26919999999999999</v>
+      </c>
+      <c r="H2">
+        <v>0.26079999999999998</v>
+      </c>
+      <c r="I2">
+        <v>0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>1E-3</v>
+      </c>
+      <c r="C3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3">
         <v>0.1028</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3">
         <v>0.1376</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.1324</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1972</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3">
+        <v>0.13239999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.19719999999999999</v>
+      </c>
+      <c r="H3">
         <v>0.2601</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3">
         <v>0.123</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C4" t="e">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>1E-3</v>
+      </c>
+      <c r="C4">
+        <v>1E-3</v>
+      </c>
+      <c r="D4" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4">
         <v>0.1973</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.1851</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.2129</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.2579</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.1765</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="D5" t="e">
+      <c r="F4">
+        <v>0.18509999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.21290000000000001</v>
+      </c>
+      <c r="H4">
+        <v>0.25790000000000002</v>
+      </c>
+      <c r="I4">
+        <v>0.17649999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>1E-3</v>
+      </c>
+      <c r="C5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D5">
+        <v>1E-3</v>
+      </c>
+      <c r="E5" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.0125</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.2692</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.3489</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2188</v>
-      </c>
-      <c r="E6" t="e">
+      <c r="F5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.26919999999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.34889999999999999</v>
+      </c>
+      <c r="I5">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>1E-3</v>
+      </c>
+      <c r="C6">
+        <v>2E-3</v>
+      </c>
+      <c r="D6">
+        <v>1E-3</v>
+      </c>
+      <c r="E6">
+        <v>0.21879999999999999</v>
+      </c>
+      <c r="F6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>0.2354</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.2941</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0087</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F7" t="e">
+      <c r="H6">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="I6">
+        <v>8.6999999999999994E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>1E-3</v>
+      </c>
+      <c r="C7">
+        <v>1E-3</v>
+      </c>
+      <c r="D7">
+        <v>1E-3</v>
+      </c>
+      <c r="E7">
+        <v>1E-3</v>
+      </c>
+      <c r="F7">
+        <v>1E-3</v>
+      </c>
+      <c r="G7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.3358</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.3015</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="G8" t="e">
+      <c r="H7">
+        <v>0.33579999999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.30149999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>1E-3</v>
+      </c>
+      <c r="C8">
+        <v>1E-3</v>
+      </c>
+      <c r="D8">
+        <v>1E-3</v>
+      </c>
+      <c r="E8">
+        <v>1E-3</v>
+      </c>
+      <c r="F8">
+        <v>1E-3</v>
+      </c>
+      <c r="G8">
+        <v>1E-3</v>
+      </c>
+      <c r="H8" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.4492</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.0789</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.2937</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.2967</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H9" t="e">
+      <c r="I8">
+        <v>0.44919999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>1E-3</v>
+      </c>
+      <c r="C9">
+        <v>7.8899999999999998E-2</v>
+      </c>
+      <c r="D9">
+        <v>1E-3</v>
+      </c>
+      <c r="E9">
+        <v>0.29370000000000002</v>
+      </c>
+      <c r="F9">
+        <v>0.29670000000000002</v>
+      </c>
+      <c r="G9">
+        <v>1E-3</v>
+      </c>
+      <c r="H9">
+        <v>1E-3</v>
+      </c>
+      <c r="I9" t="e">
         <v>#N/A</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>